--- a/data/trans_dic/P44-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P44-Provincia-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.1925661672243104</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4035200948122041</v>
+        <v>0.4035200948122042</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03368844948783689</v>
+        <v>0.04137390005956931</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1531437595650561</v>
+        <v>0.1543054433487974</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4617273423349704</v>
+        <v>0.4628606653513805</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05170622420598042</v>
+        <v>0.05881563303984451</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09203497648499168</v>
+        <v>0.09486142658283116</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2228156180583495</v>
+        <v>0.2223077602335401</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05795956377593535</v>
+        <v>0.05978378711266975</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1396779634738706</v>
+        <v>0.1452682109494227</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.355297530087676</v>
+        <v>0.3541560190181157</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1596637451883101</v>
+        <v>0.1672616329014925</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3241568788626264</v>
+        <v>0.3274301891290233</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6014453074727372</v>
+        <v>0.6061436833591201</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1871077789734251</v>
+        <v>0.1959807564371676</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2386337499858177</v>
+        <v>0.2456025861758316</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.325006124504475</v>
+        <v>0.3270347805102946</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1494469446787005</v>
+        <v>0.1542674568653218</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2504652843455246</v>
+        <v>0.2580173044921638</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4481638594967559</v>
+        <v>0.4491756885216548</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.0534780682533474</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.316319284116198</v>
+        <v>0.3163192841161979</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.09559141213294899</v>
@@ -773,7 +773,7 @@
         <v>0.03971420140893599</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.2371586457700445</v>
+        <v>0.2371586457700446</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08525428093982126</v>
+        <v>0.08567648502554663</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02845516756378575</v>
+        <v>0.02657279442209532</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2523550304238069</v>
+        <v>0.2568084215560792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06092369825591472</v>
+        <v>0.06106109006896444</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01086101423905256</v>
+        <v>0.009708118655885709</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1354308785187726</v>
+        <v>0.134428030287974</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.08550593009797258</v>
+        <v>0.0844405821969193</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.02416638378688151</v>
+        <v>0.02367838907250664</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2054842336307552</v>
+        <v>0.2025653818016653</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2094606811679369</v>
+        <v>0.2067440433265745</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09284534938255642</v>
+        <v>0.09176886424376686</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.382053647954918</v>
+        <v>0.3861744103458145</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1409669416701712</v>
+        <v>0.1439426482957822</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05995993198134304</v>
+        <v>0.05605166144474201</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2126112222933378</v>
+        <v>0.208994795927419</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1582499296588047</v>
+        <v>0.1591748499306457</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.06425260377636077</v>
+        <v>0.06147203574124604</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2773755536021276</v>
+        <v>0.2741398753592895</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03656952031776322</v>
+        <v>0.03651925087141632</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09796024376505617</v>
+        <v>0.101999824650708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2989125620789377</v>
+        <v>0.297155891000806</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04815531436117047</v>
+        <v>0.04891571722090948</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07792291121781468</v>
+        <v>0.07589970702417653</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2924845049760448</v>
+        <v>0.2977709170785421</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05509348965561212</v>
+        <v>0.05413365996249909</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09670187865046086</v>
+        <v>0.1024729414080039</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3056610667273754</v>
+        <v>0.3107445580583774</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1541821621686244</v>
+        <v>0.15437560860386</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2116338282199137</v>
+        <v>0.2205188316022035</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4288917833113725</v>
+        <v>0.4277106919978247</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.147323444649002</v>
+        <v>0.1497121906092453</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2048345345345604</v>
+        <v>0.2038200065995264</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4031160192218232</v>
+        <v>0.3986828733636192</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1332220776341145</v>
+        <v>0.1341131779591804</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1810376449954821</v>
+        <v>0.1835207499081289</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3941429561791289</v>
+        <v>0.3970355996144788</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.1350812564881519</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.3107175985827694</v>
+        <v>0.3107175985827693</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03849919973716956</v>
+        <v>0.03898503005055214</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1069380027495728</v>
+        <v>0.1065372220356126</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2473652232196881</v>
+        <v>0.2495858567959648</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05538646649506063</v>
+        <v>0.05173967752205999</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06856269553068903</v>
+        <v>0.06874576047002283</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2632735559506011</v>
+        <v>0.2582451452097532</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05378278188863148</v>
+        <v>0.05507083129720542</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1012741519930656</v>
+        <v>0.1000666851515544</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2704312223889245</v>
+        <v>0.2719888310408702</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1455055353810579</v>
+        <v>0.143698102339344</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2199090079506267</v>
+        <v>0.2264462665937879</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3790525605021476</v>
+        <v>0.376746342613056</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1430404924861725</v>
+        <v>0.1459308268864195</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1682609551332016</v>
+        <v>0.1681966552897454</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3572637116324849</v>
+        <v>0.3559522119884543</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1222460991638424</v>
+        <v>0.1230381370984434</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1784115363573575</v>
+        <v>0.1749477503401795</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.352224309582011</v>
+        <v>0.3500322220815631</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0285170525685182</v>
+        <v>0.02843252820687152</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01095399500790132</v>
+        <v>0.01084941199298098</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1105280722853031</v>
+        <v>0.1097602459500427</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02559181769975011</v>
+        <v>0.03498765186504572</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.009818225278929633</v>
+        <v>0.009653831878014128</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09828334980299112</v>
+        <v>0.09923270335956547</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04427263988137351</v>
+        <v>0.03786155771757529</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01500649672943202</v>
+        <v>0.01536490628020608</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1165795066834851</v>
+        <v>0.1139001014612981</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1668139439202141</v>
+        <v>0.1633340913963906</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09216470762855608</v>
+        <v>0.09098527676554992</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2287734365269461</v>
+        <v>0.2311828901089573</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1460454467799513</v>
+        <v>0.1496264232442263</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.09400011885039944</v>
+        <v>0.0855369321828041</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1741636141252211</v>
+        <v>0.1802992077178092</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.132910507383611</v>
+        <v>0.1228916390725321</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06756520071897645</v>
+        <v>0.07065284127778226</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.183687808765585</v>
+        <v>0.1842256131755635</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04802951268906292</v>
+        <v>0.0475713692779586</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04749583966464872</v>
+        <v>0.04708107793009494</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2283722592345103</v>
+        <v>0.2282030905477305</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01657025547025279</v>
+        <v>0.01631219364075766</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03036670103932638</v>
+        <v>0.03117311058454204</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1877959843786539</v>
+        <v>0.1853356999095348</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.03990311373478383</v>
+        <v>0.03962045959065544</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04547673639511595</v>
+        <v>0.04678438785098178</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2234581147435874</v>
+        <v>0.2244253604365599</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1625289941929235</v>
+        <v>0.1642267400329502</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1549521742856126</v>
+        <v>0.1609344943461057</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3492931022416876</v>
+        <v>0.3492570978540174</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.08979010012508745</v>
+        <v>0.09751520218318788</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1241389065129372</v>
+        <v>0.1272104661379456</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2885627918039488</v>
+        <v>0.2891312680184644</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1084377797160916</v>
+        <v>0.1098937279083049</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1132813554319557</v>
+        <v>0.1183811793304069</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2993493806564569</v>
+        <v>0.3007146723398105</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>0.1573599181666175</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3702059066449268</v>
+        <v>0.3702059066449266</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.07654905868264097</v>
@@ -1318,7 +1318,7 @@
         <v>0.1278707978791632</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.3740288505967838</v>
+        <v>0.3740288505967837</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04422516173647677</v>
+        <v>0.04401722156450313</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1158747156654988</v>
+        <v>0.1176982800298748</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3220733386159226</v>
+        <v>0.3158451311260163</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04600621137943758</v>
+        <v>0.04521152316878336</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06323168005398055</v>
+        <v>0.06549770393083561</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3369080218428954</v>
+        <v>0.3329982034264982</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05362501521775945</v>
+        <v>0.05501958693990255</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1034017284838011</v>
+        <v>0.0982007523653103</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3397291453912419</v>
+        <v>0.3430532021832445</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1198420118619212</v>
+        <v>0.1228175622820194</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2089702419601572</v>
+        <v>0.2111308704793491</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4219043540058497</v>
+        <v>0.4219080664226695</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1161349654720984</v>
+        <v>0.1177371422525504</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1415042678098306</v>
+        <v>0.1444152000210187</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4192263462811338</v>
+        <v>0.4175184965145046</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1051875015980443</v>
+        <v>0.1102979399088856</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1603323130867487</v>
+        <v>0.1568118479983025</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4039368943306943</v>
+        <v>0.4078678589210383</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.07221394403758695</v>
+        <v>0.07077838759939857</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05630472626032409</v>
+        <v>0.05795290964371205</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3647117403306412</v>
+        <v>0.3680166685824785</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02634053058162454</v>
+        <v>0.02615008641630146</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02017764275920996</v>
+        <v>0.02036832870143977</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3350113205137153</v>
+        <v>0.3340123784127146</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.05341092815083293</v>
+        <v>0.05397006623947771</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04178471435722763</v>
+        <v>0.04128552872352848</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3627774764367627</v>
+        <v>0.3615830911247965</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.153974425223954</v>
+        <v>0.1541969871947464</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1206365511378919</v>
+        <v>0.125528683749065</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4576185098536344</v>
+        <v>0.4646962407255321</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.07658293853584713</v>
+        <v>0.07338575965742795</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06051237314904114</v>
+        <v>0.06152077984446874</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4151973122080969</v>
+        <v>0.4127472051406286</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.09776646671027592</v>
+        <v>0.1012023323210361</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.07947921815318282</v>
+        <v>0.07764345892016203</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4221200399186129</v>
+        <v>0.4220764878538113</v>
       </c>
     </row>
     <row r="28">
@@ -1547,31 +1547,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.07657237801550149</v>
+        <v>0.07847691551996094</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1021887436950379</v>
+        <v>0.1011323362788182</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3400116420467126</v>
+        <v>0.3400366221814116</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.06128007987945324</v>
+        <v>0.06107576446360016</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.06035873117363024</v>
+        <v>0.06195570227470121</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2866450142394491</v>
+        <v>0.2866508430085106</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.07314892411682634</v>
+        <v>0.07347567468646375</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.08429354105189769</v>
+        <v>0.08453321314773669</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.3172737264085895</v>
+        <v>0.3174150669117179</v>
       </c>
     </row>
     <row r="30">
@@ -1582,31 +1582,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1127179516349354</v>
+        <v>0.115472612613822</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.1357601099904893</v>
+        <v>0.1359336836774408</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3846923059837695</v>
+        <v>0.3832675934239288</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.09104119094736039</v>
+        <v>0.09092387653659173</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.08894612539775527</v>
+        <v>0.0891214802093461</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3204276778498423</v>
+        <v>0.3185619539871126</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.09555706054319056</v>
+        <v>0.09573680453268132</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1076014436264689</v>
+        <v>0.1064468507647087</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3442201189820771</v>
+        <v>0.343926444099361</v>
       </c>
     </row>
     <row r="31">
@@ -1839,31 +1839,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2880</v>
+        <v>3537</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16146</v>
+        <v>16268</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>63929</v>
+        <v>64086</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5339</v>
+        <v>6074</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9928</v>
+        <v>10233</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>30005</v>
+        <v>29937</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10941</v>
+        <v>11285</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>29794</v>
+        <v>30986</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>97039</v>
+        <v>96727</v>
       </c>
     </row>
     <row r="7">
@@ -1874,31 +1874,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13651</v>
+        <v>14300</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>34175</v>
+        <v>34520</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>83274</v>
+        <v>83924</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19322</v>
+        <v>20238</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>25742</v>
+        <v>26494</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>43766</v>
+        <v>44039</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>28210</v>
+        <v>29120</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>53425</v>
+        <v>55036</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>122402</v>
+        <v>122678</v>
       </c>
     </row>
     <row r="8">
@@ -1983,31 +1983,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14748</v>
+        <v>14821</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5962</v>
+        <v>5567</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>52710</v>
+        <v>53640</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13010</v>
+        <v>13039</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2630</v>
+        <v>2350</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>33527</v>
+        <v>33279</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>33050</v>
+        <v>32639</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>10914</v>
+        <v>10694</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>93789</v>
+        <v>92457</v>
       </c>
     </row>
     <row r="11">
@@ -2018,31 +2018,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>36234</v>
+        <v>35764</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19452</v>
+        <v>19227</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>79800</v>
+        <v>80661</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30102</v>
+        <v>30738</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14517</v>
+        <v>13571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>52634</v>
+        <v>51739</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>61168</v>
+        <v>61525</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>29018</v>
+        <v>27762</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>126603</v>
+        <v>125126</v>
       </c>
     </row>
     <row r="12">
@@ -2127,31 +2127,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4125</v>
+        <v>4119</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>13980</v>
+        <v>14556</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>46281</v>
+        <v>46009</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7173</v>
+        <v>7286</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>12386</v>
+        <v>12065</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>48771</v>
+        <v>49652</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14421</v>
+        <v>14170</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>29171</v>
+        <v>30912</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>98293</v>
+        <v>99928</v>
       </c>
     </row>
     <row r="15">
@@ -2162,31 +2162,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17391</v>
+        <v>17413</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>30202</v>
+        <v>31470</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>66405</v>
+        <v>66222</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21945</v>
+        <v>22301</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>32559</v>
+        <v>32398</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>67218</v>
+        <v>66479</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>34871</v>
+        <v>35104</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>54613</v>
+        <v>55362</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>126747</v>
+        <v>127677</v>
       </c>
     </row>
     <row r="16">
@@ -2271,31 +2271,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5331</v>
+        <v>5398</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17519</v>
+        <v>17453</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>47378</v>
+        <v>47803</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>8834</v>
+        <v>8253</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>12755</v>
+        <v>12789</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>54677</v>
+        <v>53633</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16026</v>
+        <v>16410</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>35431</v>
+        <v>35009</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>107959</v>
+        <v>108581</v>
       </c>
     </row>
     <row r="19">
@@ -2306,31 +2306,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>20148</v>
+        <v>19898</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>36026</v>
+        <v>37097</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>72600</v>
+        <v>72159</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22816</v>
+        <v>23277</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31302</v>
+        <v>31290</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>74197</v>
+        <v>73925</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>36427</v>
+        <v>36663</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>62418</v>
+        <v>61207</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>140612</v>
+        <v>139737</v>
       </c>
     </row>
     <row r="20">
@@ -2415,31 +2415,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>9074</v>
+        <v>9011</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2292</v>
+        <v>3133</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1046</v>
+        <v>1029</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10643</v>
+        <v>10746</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7382</v>
+        <v>6313</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2906</v>
+        <v>2975</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>22194</v>
+        <v>21684</v>
       </c>
     </row>
     <row r="23">
@@ -2450,31 +2450,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12877</v>
+        <v>12608</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8027</v>
+        <v>7924</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18781</v>
+        <v>18978</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>13079</v>
+        <v>13399</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10016</v>
+        <v>9114</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>18859</v>
+        <v>19524</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>22163</v>
+        <v>20492</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>13083</v>
+        <v>13681</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>34970</v>
+        <v>35073</v>
       </c>
     </row>
     <row r="24">
@@ -2559,31 +2559,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5175</v>
+        <v>5126</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5433</v>
+        <v>5385</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>30113</v>
+        <v>30090</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2152</v>
+        <v>2118</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4103</v>
+        <v>4212</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>24736</v>
+        <v>24412</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>9481</v>
+        <v>9414</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>11346</v>
+        <v>11672</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>58899</v>
+        <v>59154</v>
       </c>
     </row>
     <row r="27">
@@ -2594,31 +2594,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17512</v>
+        <v>17695</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>17724</v>
+        <v>18409</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>46057</v>
+        <v>46052</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11660</v>
+        <v>12664</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>16772</v>
+        <v>17187</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>38009</v>
+        <v>38084</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>25766</v>
+        <v>26112</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>28263</v>
+        <v>29536</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>78902</v>
+        <v>79262</v>
       </c>
     </row>
     <row r="28">
@@ -2703,31 +2703,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>10538</v>
+        <v>10488</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>30351</v>
+        <v>30829</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>108343</v>
+        <v>106248</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>13622</v>
+        <v>13386</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>18268</v>
+        <v>18922</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>120812</v>
+        <v>119410</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>28655</v>
+        <v>29400</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>56957</v>
+        <v>54092</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>236106</v>
+        <v>238416</v>
       </c>
     </row>
     <row r="31">
@@ -2738,31 +2738,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>28555</v>
+        <v>29264</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>54735</v>
+        <v>55301</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>141925</v>
+        <v>141926</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>34385</v>
+        <v>34860</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>40881</v>
+        <v>41722</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>150331</v>
+        <v>149718</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>56207</v>
+        <v>58938</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>88316</v>
+        <v>86377</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>280729</v>
+        <v>283461</v>
       </c>
     </row>
     <row r="32">
@@ -2847,31 +2847,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>18854</v>
+        <v>18479</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>17716</v>
+        <v>18235</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>127628</v>
+        <v>128785</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>8606</v>
+        <v>8544</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>7471</v>
+        <v>7542</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>132746</v>
+        <v>132350</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>31395</v>
+        <v>31723</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>28619</v>
+        <v>28277</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>270699</v>
+        <v>269808</v>
       </c>
     </row>
     <row r="35">
@@ -2882,31 +2882,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>40200</v>
+        <v>40258</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>37958</v>
+        <v>39497</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>160140</v>
+        <v>162617</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>25021</v>
+        <v>23976</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>22406</v>
+        <v>22780</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>164519</v>
+        <v>163548</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>57467</v>
+        <v>59486</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>54437</v>
+        <v>53180</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>314980</v>
+        <v>314947</v>
       </c>
     </row>
     <row r="36">
@@ -2991,31 +2991,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>91431</v>
+        <v>93705</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>143016</v>
+        <v>141537</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>541970</v>
+        <v>542010</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>89927</v>
+        <v>89627</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>96321</v>
+        <v>98869</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>502056</v>
+        <v>502066</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>194688</v>
+        <v>195558</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>252487</v>
+        <v>253205</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1061428</v>
+        <v>1061900</v>
       </c>
     </row>
     <row r="39">
@@ -3026,31 +3026,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>134591</v>
+        <v>137880</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>190000</v>
+        <v>190243</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>613190</v>
+        <v>610919</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>133601</v>
+        <v>133429</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>141941</v>
+        <v>142221</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>561226</v>
+        <v>557958</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>254328</v>
+        <v>254806</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>322302</v>
+        <v>318844</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1151576</v>
+        <v>1150593</v>
       </c>
     </row>
     <row r="40">
